--- a/data/performance_sheets_option3_flatten/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3_flatten/window2/BA11 Overall Model Peformance Results.xlsx
@@ -890,23 +890,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0174683388967087</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.0956345292596267</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.2564602149414992</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1321678436561207</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>16.4283977058834</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -920,23 +920,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0174683388967087</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.0956345292596267</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.2564602149414993</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1321678436561207</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>21.40085768363254</v>
+        <v>16.42839770588341</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1014,23 +1014,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02318331095108384</v>
+        <v>0.0263382345175134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.126011857003465</v>
+        <v>0.1261731342639556</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1700459852835665</v>
+        <v>0.2114368100165038</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1522606677743265</v>
+        <v>0.1622905866571239</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.87119865997597</v>
+        <v>21.06592594110364</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02249837693077362</v>
+        <v>0.0258629862618303</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1245823260858609</v>
+        <v>0.1249180989096628</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1685735607921824</v>
+        <v>0.2091611506954841</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1499945896716732</v>
+        <v>0.1608197321905192</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>18.67385691817612</v>
+        <v>20.86623170235735</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1592,23 +1592,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02725143300886463</v>
+        <v>0.0169175500891221</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1243487007791708</v>
+        <v>0.09971765708088259</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.155569476543128</v>
+        <v>0.1609801257742927</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1650800805938276</v>
+        <v>0.1300674828276541</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.37361433185083</v>
+        <v>16.09496499226946</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -1622,23 +1622,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.02729919383240875</v>
+        <v>0.0147130563106756</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1246947185145159</v>
+        <v>0.0928067288039425</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1564297233484333</v>
+        <v>0.1506579639585864</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1652246768264618</v>
+        <v>0.1212973878971665</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>17.44701164538177</v>
+        <v>15.03972140666609</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03463064879179001</v>
+        <v>0.034630638</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1605514734983444</v>
+        <v>0.16055143</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2776000499725342</v>
+        <v>0.2776</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1860931186040742</v>
+        <v>0.186093088576441</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.02225255966187</v>
+        <v>29.02224659919739</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1770,19 +1770,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02156816050410271</v>
+        <v>0.021568162</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1078639924526215</v>
+        <v>0.10786399</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2472140192985535</v>
+        <v>0.24721405</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1468610244554446</v>
+        <v>0.1468610307969675</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>18.18129867315292</v>
+        <v>18.18130016326904</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02294991351664066</v>
+        <v>0.022951918</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1242059841752052</v>
+        <v>0.124215655</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1634002029895782</v>
+        <v>0.16341372</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1514922886375431</v>
+        <v>0.1514989033716786</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.8584948182106</v>
+        <v>17.85980612039566</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2798322737216949</v>
+        <v>0.2794269</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4340879321098328</v>
+        <v>0.43377674</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5468442440032959</v>
+        <v>0.54642296</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5289917520356011</v>
+        <v>0.5286084586275341</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>88.63469958305359</v>
+        <v>88.54585289955139</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -1864,19 +1864,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04022220894694328</v>
+        <v>0.040134106</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1789808422327042</v>
+        <v>0.17867859</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3387233316898346</v>
+        <v>0.33801776</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.200554752990158</v>
+        <v>0.2003349840426895</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.95077180862427</v>
+        <v>31.899693608284</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -1894,19 +1894,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.01287697721272707</v>
+        <v>0.012874078</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.07544303685426712</v>
+        <v>0.0754264</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2289538085460663</v>
+        <v>0.22892705</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1134767694848909</v>
+        <v>0.1134639943134045</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>14.18510973453522</v>
+        <v>14.1832247376442</v>
       </c>
     </row>
   </sheetData>
@@ -2209,19 +2209,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2235,23 +2235,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1166351266428194</v>
+        <v>0.4495491037735563</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.294273898863055</v>
+        <v>0.5291862333795182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1172543513233082</v>
+        <v>0.2316904943071819</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3415188525437788</v>
+        <v>0.6704842308164721</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.84145850273955</v>
+        <v>22.97507890840031</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3221512795485805</v>
+        <v>0.4726894008355849</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4828767413201455</v>
+        <v>0.5600743439742115</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1999495023996234</v>
+        <v>0.2478536073722256</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.567583720299112</v>
+        <v>0.6875241092758747</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>23.06696884657088</v>
+        <v>24.35453410276622</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2911,19 +2911,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4918385339437786</v>
+        <v>1.550215680141704</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6072024786095941</v>
+        <v>1.073740073118647</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2560156264504031</v>
+        <v>0.4398369879928217</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7013120089830051</v>
+        <v>1.245076576015188</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.17968208576268</v>
+        <v>56.85515320921078</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -2941,19 +2941,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.4223242730392235</v>
+        <v>1.846678274904309</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5440973911090728</v>
+        <v>1.130780199095038</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2618009694039464</v>
+        <v>0.4809059035367096</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.6498648113563493</v>
+        <v>1.358925411825207</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>23.13544585237133</v>
+        <v>62.87802359076156</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3055,19 +3055,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3637125492095947</v>
+        <v>0.36371246</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3376604914665222</v>
+        <v>0.3376605</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2682677209377289</v>
+        <v>0.26826772</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.603085855587407</v>
+        <v>0.603085781462826</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>15.49519896507263</v>
+        <v>15.49519747495651</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3085,19 +3085,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5013806223869324</v>
+        <v>0.50138074</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6221678256988525</v>
+        <v>0.6221680000000001</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3258350193500519</v>
+        <v>0.32583508</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7080823556528805</v>
+        <v>0.7080824398304352</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.6958167552948</v>
+        <v>27.69582569599152</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3117,19 +3117,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2928931713104248</v>
+        <v>0.2928933</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4651790261268616</v>
+        <v>0.4651792</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.179985836148262</v>
+        <v>0.1799859</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5411960562591203</v>
+        <v>0.5411961663941406</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.65642517805099</v>
+        <v>18.65643411874771</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4261035621166229</v>
+        <v>0.4261036</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5754491090774536</v>
+        <v>0.5754491</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2153806537389755</v>
+        <v>0.21538067</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6527660852990318</v>
+        <v>0.6527661081267511</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>23.71938079595566</v>
+        <v>23.71938079595565</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8083327412605286</v>
+        <v>0.8083593</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6799492835998535</v>
+        <v>0.6799658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4418314397335052</v>
+        <v>0.4418393</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8990732680157544</v>
+        <v>0.8990880518236789</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.16814076900482</v>
+        <v>26.16861760616302</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4400143623352051</v>
+        <v>0.43999606</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4083179831504822</v>
+        <v>0.40829787</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.311371386051178</v>
+        <v>0.3113621</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.663335784000234</v>
+        <v>0.6633219909736591</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>17.83912628889084</v>
+        <v>17.838454246521</v>
       </c>
     </row>
   </sheetData>
@@ -3521,19 +3521,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3551,19 +3551,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09577698601752702</v>
+        <v>0.3884557761011489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2535640237679083</v>
+        <v>0.5516812023357347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09962893677961866</v>
+        <v>0.2366011651909587</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3094785711766277</v>
+        <v>0.6232622049355704</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.983106744119862</v>
+        <v>23.54587790265965</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3244698801213782</v>
+        <v>0.3752286547158071</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5243664404787421</v>
+        <v>0.5246053259270869</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2097728806926168</v>
+        <v>0.2308622736848001</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5696225769063039</v>
+        <v>0.6125591030388881</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>18.83568397962643</v>
+        <v>22.39439802122475</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,23 +4219,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.448031133808566</v>
+        <v>2.45685704701029</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.762762464226574</v>
+        <v>1.307286663216915</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6697102916457255</v>
+        <v>0.5090360461613432</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.856887485500553</v>
+        <v>1.567436457088545</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>108.9417073176851</v>
+        <v>73.42441681417402</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4249,23 +4249,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5351578309451028</v>
+        <v>1.035285636758001</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6086255203792399</v>
+        <v>0.857422428320849</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2239545785246477</v>
+        <v>0.340974194287013</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7315448249732226</v>
+        <v>1.017489870592332</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>25.92465214837999</v>
+        <v>45.90132251252065</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4367,19 +4367,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4251943230628967</v>
+        <v>0.42519432</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.419355183839798</v>
+        <v>0.41935518</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2713054418563843</v>
+        <v>0.27130547</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6520692624736246</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.0741930603981</v>
+        <v>17.07419157028198</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4397,19 +4397,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3788324296474457</v>
+        <v>0.3788324</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3891748785972595</v>
+        <v>0.38917482</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2534289658069611</v>
+        <v>0.25342894</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.6154936471219226</v>
+        <v>0.6154936229118245</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>16.06213450431824</v>
+        <v>16.06213301420212</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4429,19 +4429,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1697134077548981</v>
+        <v>0.16964234</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3397332429885864</v>
+        <v>0.33965933</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1212425082921982</v>
+        <v>0.12121617</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4119628718160146</v>
+        <v>0.4118766127339164</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.23981285095215</v>
+        <v>13.23662996292114</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,13 +4459,13 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1428838968276978</v>
+        <v>0.1428839</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.314314067363739</v>
+        <v>0.31431407</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1115502640604973</v>
+        <v>0.111550264</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.3779998635286761</v>
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7330015301704407</v>
+        <v>0.7321284</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.67845618724823</v>
+        <v>0.6778566</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3865440487861633</v>
+        <v>0.38627985</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8561550853498685</v>
+        <v>0.8556450091767765</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.99386966228485</v>
+        <v>24.97638314962387</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3889339864253998</v>
+        <v>0.38889182</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3923081159591675</v>
+        <v>0.3922679</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2601794600486755</v>
+        <v>0.2601611</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6236457218849495</v>
+        <v>0.6236119114795845</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>16.20662957429886</v>
+        <v>16.20532870292664</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4957,19 +4957,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1398609966205653</v>
+        <v>0.3692603775373331</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3309292676638445</v>
+        <v>0.535103809779001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1206694606400988</v>
+        <v>0.198757292003189</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3739799414682093</v>
+        <v>0.6076679829786437</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.05976936983561</v>
+        <v>22.04656223127889</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4211746373077975</v>
+        <v>0.2580286579905558</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5511626155500322</v>
+        <v>0.4580162408152787</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2020045767401579</v>
+        <v>0.1820108970596345</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6489796894416631</v>
+        <v>0.5079652133665807</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>21.02238310973943</v>
+        <v>18.8851941765</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5531,23 +5531,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.051507692166143</v>
+        <v>2.129343342565326</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9430657860965671</v>
+        <v>1.317268194708304</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.337396102404538</v>
+        <v>0.4854947989228135</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.02543049114318</v>
+        <v>1.459226967460966</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>42.26774941869939</v>
+        <v>69.09147124746811</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5561,23 +5561,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5795407135326099</v>
+        <v>2.983505552753507</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6607600196164908</v>
+        <v>1.422850088389152</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2319212772378637</v>
+        <v>0.5438759170590004</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7612757145296374</v>
+        <v>1.727282707825649</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.32094146922273</v>
+        <v>88.10669279018788</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5679,19 +5679,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1670369356870651</v>
+        <v>0.16703698</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.286872535943985</v>
+        <v>0.2868726</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1343621015548706</v>
+        <v>0.13436212</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4087015239598026</v>
+        <v>0.4087015786494453</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.66406124830246</v>
+        <v>11.66406273841858</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5709,13 +5709,13 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3783738613128662</v>
+        <v>0.37837386</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5207148790359497</v>
+        <v>0.5207149</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2149218320846558</v>
+        <v>0.21492183</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.6151210135516963</v>
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6657929420471191</v>
+        <v>0.6659167</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.684998095035553</v>
+        <v>0.6850476</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2381037920713425</v>
+        <v>0.23812053</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8159613606336511</v>
+        <v>0.8160371813157001</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.60157191753387</v>
+        <v>28.60427796840668</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5771,16 +5771,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.620759904384613</v>
+        <v>0.6207597</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.7134713530540466</v>
+        <v>0.7134713</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2495987117290497</v>
+        <v>0.24959871</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.7878831794020057</v>
+        <v>0.7878830659245563</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>28.61166894435883</v>
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5811299085617065</v>
+        <v>0.58129686</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6497273445129395</v>
+        <v>0.6498554</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.292457789182663</v>
+        <v>0.29250616</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.762318770962454</v>
+        <v>0.7624282662465515</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.8307694196701</v>
+        <v>22.83454388380051</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.8584998846054077</v>
+        <v>0.7688802</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.8544207811355591</v>
+        <v>0.7971445</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.366245448589325</v>
+        <v>0.34482294</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.9265526885209538</v>
+        <v>0.8768581347430828</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>28.55017781257629</v>
+        <v>26.95006430149078</v>
       </c>
     </row>
   </sheetData>
@@ -6139,53 +6139,53 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0141362572504204</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.0872052315472332</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1690461686199834</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1188959934161806</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>15.2074430045375</v>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Decision Tree Regressor</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
           <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0.05474586346482115</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.1561035865899559</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>1.463725255094422</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.2339783397343035</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>31.84971423703507</v>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Decision Tree Regressor</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K9" s="8" t="inlineStr">
-        <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
-        </is>
-      </c>
       <c r="L9" s="8" t="n">
-        <v>0.05474586346482117</v>
+        <v>0.0052353622193931</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1561035865899559</v>
+        <v>0.0637839008501709</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.463725255094422</v>
+        <v>0.1267376831184058</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2339783397343035</v>
+        <v>0.0723558029420799</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>31.84971423703508</v>
+        <v>11.30288256627552</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,23 +6263,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4193856260152439</v>
+        <v>0.3167743204906798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5973340539100465</v>
+        <v>0.5252984986970978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1</v>
+        <v>0.9203239726678684</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.647599896552836</v>
+        <v>0.5628270786757508</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>200</v>
+        <v>127.0713067268134</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6293,23 +6293,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1073574393420992</v>
+        <v>0.3295418070899835</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3062505288213078</v>
+        <v>0.5365709082682012</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.141868221620253</v>
+        <v>0.9341706492199506</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3276544511251133</v>
+        <v>0.5740573203870704</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>68.24577305780217</v>
+        <v>130.3359935350428</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6841,23 +6841,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07484681951638376</v>
+        <v>0.0057888662215844</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2134170232314372</v>
+        <v>0.06358643706269421</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.644640430905179</v>
+        <v>0.1125005907427328</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2735814677868071</v>
+        <v>0.07608459910904759</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>39.618228844836</v>
+        <v>10.55950115937148</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6871,23 +6871,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07484681951638376</v>
+        <v>0.0057888662215844</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2134170232314372</v>
+        <v>0.06358643706269421</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.644640430905179</v>
+        <v>0.1125005907427328</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2735814677868071</v>
+        <v>0.07608459910904759</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>39.618228844836</v>
+        <v>10.55950115937148</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.01911474764347076</v>
+        <v>0.01911477</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.110363095998764</v>
+        <v>0.110363185</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2593544721603394</v>
+        <v>0.25935444</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1382560944171025</v>
+        <v>0.1382561752516413</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.2031592130661</v>
+        <v>19.20317262411118</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7019,19 +7019,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1800094991922379</v>
+        <v>0.17999472</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3817183971405029</v>
+        <v>0.38170364</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6516135931015015</v>
+        <v>0.6515959</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4242752634696464</v>
+        <v>0.4242578428742756</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>46.14411890506744</v>
+        <v>46.14348113536835</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7051,19 +7051,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01555983535945415</v>
+        <v>0.015559833</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09745204448699951</v>
+        <v>0.09745205</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1407265812158585</v>
+        <v>0.14072655</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1247390690980743</v>
+        <v>0.124739057898825</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.57306349277496</v>
+        <v>15.57306051254272</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04605210572481155</v>
+        <v>0.04605233</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1518830209970474</v>
+        <v>0.1518845</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2313621640205383</v>
+        <v>0.23136394</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.214597543613182</v>
+        <v>0.2145980643953469</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.97402960062027</v>
+        <v>20.974200963974</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1671577394008636</v>
+        <v>0.16952547</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3567730486392975</v>
+        <v>0.35956255</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.557472825050354</v>
+        <v>0.56044847</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4088492869027212</v>
+        <v>0.4117347135109223</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>78.51888537406921</v>
+        <v>79.28610444068909</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4077147841453552</v>
+        <v>0.40771458</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5754765272140503</v>
+        <v>0.57546604</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8439084887504578</v>
+        <v>0.8438501</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6385254765045442</v>
+        <v>0.6385253131467057</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>133.8710427284241</v>
+        <v>133.8637590408325</v>
       </c>
     </row>
   </sheetData>
@@ -7449,23 +7449,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06834122026298313</v>
+        <v>0.0127351674637973</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2053780216200532</v>
+        <v>0.0835766321458115</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.630610378209952</v>
+        <v>0.1482219218806692</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2614215374887523</v>
+        <v>0.1128501992191302</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>39.10374295068142</v>
+        <v>16.68407672161575</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7479,23 +7479,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06834122026298313</v>
+        <v>0.0084223548697357</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2053780216200532</v>
+        <v>0.0736784359644389</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.630610378209952</v>
+        <v>0.1443765151546724</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2614215374887523</v>
+        <v>0.09177338867959341</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>39.10374295068142</v>
+        <v>13.07535254694908</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7573,23 +7573,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3695468301054595</v>
+        <v>0.2564990145938884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5390761035744012</v>
+        <v>0.472757391544471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9662536122922788</v>
+        <v>1.04436523795643</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6079036355422293</v>
+        <v>0.506457317642749</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>148.1846251715514</v>
+        <v>113.1350748450036</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3668478790984426</v>
+        <v>0.3975619882004553</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5350891956954033</v>
+        <v>0.6181497938403676</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9252062080302907</v>
+        <v>1.149721681024578</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6056796835774192</v>
+        <v>0.6305251685701811</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>145.5814372590731</v>
+        <v>165.5145622874241</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8151,23 +8151,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06928202500348928</v>
+        <v>0.0105159475332156</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2066823920894507</v>
+        <v>0.0810852654377185</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.647302078191616</v>
+        <v>0.165872548874287</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2632147887248915</v>
+        <v>0.1025472941291757</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>39.22953113949018</v>
+        <v>14.56301298761004</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06928202500348928</v>
+        <v>0.009194066022403699</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2066823920894507</v>
+        <v>0.07810278666998489</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.647302078191616</v>
+        <v>0.1687568946037842</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2632147887248915</v>
+        <v>0.0958856924801807</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>39.22953113949018</v>
+        <v>14.49625339649483</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8299,19 +8299,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09188000857830048</v>
+        <v>0.09188004600000001</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2753395140171051</v>
+        <v>0.2753396</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5960080623626709</v>
+        <v>0.5960082</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3031171532234698</v>
+        <v>0.3031172146731417</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>51.30411386489868</v>
+        <v>51.30412578582764</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8329,19 +8329,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02566338703036308</v>
+        <v>0.025663296</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1354642957448959</v>
+        <v>0.13546401</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3400872647762299</v>
+        <v>0.34008676</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1601979620043997</v>
+        <v>0.1601976771390608</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>24.91767406463623</v>
+        <v>24.91761893033981</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8361,19 +8361,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05478444322943687</v>
+        <v>0.05478444</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1646205186843872</v>
+        <v>0.16462052</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2309647053480148</v>
+        <v>0.23096472</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2340607682407218</v>
+        <v>0.2340607602827662</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>31.26465082168579</v>
+        <v>31.26465380191803</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8391,19 +8391,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03341277316212654</v>
+        <v>0.033416267</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.143719807267189</v>
+        <v>0.14373896</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.212030902504921</v>
+        <v>0.2120881</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1827916113013027</v>
+        <v>0.1828011692643854</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.82462108135223</v>
+        <v>19.8282077908516</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2838889956474304</v>
+        <v>0.28627783</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3871186971664429</v>
+        <v>0.38936493</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5584347248077393</v>
+        <v>0.5616687</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5328123456221997</v>
+        <v>0.5350493721150774</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>58.1011950969696</v>
+        <v>58.4318995475769</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.09632236510515213</v>
+        <v>0.096309304</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2670147716999054</v>
+        <v>0.26705042</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6057870388031006</v>
+        <v>0.60575634</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3103584461637094</v>
+        <v>0.3103374038645128</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>52.77748107910156</v>
+        <v>52.78799533843994</v>
       </c>
     </row>
   </sheetData>
@@ -8759,23 +8759,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06725661757062271</v>
+        <v>0.0102957096542944</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2043817523455964</v>
+        <v>0.0750981649803195</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.63073141865021</v>
+        <v>0.1363873783683209</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593388084545441</v>
+        <v>0.1014677764331833</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>38.48364041756974</v>
+        <v>15.73588863113534</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8789,23 +8789,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06725661757062271</v>
+        <v>0.0273162097270627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2043817523455964</v>
+        <v>0.1229828365906559</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.63073141865021</v>
+        <v>0.3170279353911773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2593388084545441</v>
+        <v>0.1652761620048782</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.48364041756974</v>
+        <v>21.96812751918437</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8887,19 +8887,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3636460835014859</v>
+        <v>3178.84333613685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5433862837107105</v>
+        <v>42.89126607044781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.153687256827076</v>
+        <v>143.3922844261844</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6030307483880784</v>
+        <v>56.38123212680662</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>145.3117323786315</v>
+        <v>194.5673993434018</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8913,23 +8913,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3811066101387294</v>
+        <v>47.04929152264128</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5654800677733564</v>
+        <v>6.024541209555178</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9194424797842633</v>
+        <v>12.99284525177592</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.617338327126001</v>
+        <v>6.859248612103317</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>169.9676409235431</v>
+        <v>172.5636389073798</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9465,19 +9465,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0519997465116185</v>
+        <v>0.009997096717055501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1765658199330702</v>
+        <v>0.0798266152763169</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.565787712229261</v>
+        <v>0.1772703739783159</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2280345292091057</v>
+        <v>0.0999854825314935</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>34.93645250746249</v>
+        <v>14.76934993125915</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9495,19 +9495,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05076459136673969</v>
+        <v>0.010271536927826</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.165781046382461</v>
+        <v>0.0810202416122919</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.609008414117752</v>
+        <v>0.2170320553922999</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2253099894961155</v>
+        <v>0.1013485911486986</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>33.02909247010019</v>
+        <v>16.32820348694286</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9609,19 +9609,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03204207122325897</v>
+        <v>0.03204193</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1094675585627556</v>
+        <v>0.10946785</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4705475270748138</v>
+        <v>0.47054693</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1790029922187307</v>
+        <v>0.1790025968030286</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.5203965306282</v>
+        <v>20.52045166492462</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9639,19 +9639,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02895765565335751</v>
+        <v>0.028340107</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1134563162922859</v>
+        <v>0.112565845</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5186886787414551</v>
+        <v>0.5121621</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.17016949095933</v>
+        <v>0.1683452013869147</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.3103791475296</v>
+        <v>22.181636095047</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9671,19 +9671,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01555020269006491</v>
+        <v>0.015550207</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1005614697933197</v>
+        <v>0.10056147</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1615026593208313</v>
+        <v>0.16150269</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1247004518438683</v>
+        <v>0.1247004705150617</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.3449227809906</v>
+        <v>16.34492725133896</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9701,19 +9701,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05252417176961899</v>
+        <v>0.052524105</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1804632097482681</v>
+        <v>0.18046317</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2928014993667603</v>
+        <v>0.29280132</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2291815258034971</v>
+        <v>0.229181379510626</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>33.2504540681839</v>
+        <v>33.25045704841614</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7006.162109375</v>
+        <v>7007.4136</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>70.50328063964844</v>
+        <v>70.51469400000001</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>120.592658996582</v>
+        <v>120.61435</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>83.70282019965038</v>
+        <v>83.71029550908747</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>196.1040616035461</v>
+        <v>196.105968952179</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>39809.31640625</v>
+        <v>39810.434</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>133.1462097167969</v>
+        <v>133.15042</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>538.9266967773438</v>
+        <v>538.9269</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>199.5227215287773</v>
+        <v>199.5255211589485</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>198.5099673271179</v>
+        <v>198.5098838806152</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6257662666205206</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4011180826469165</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6062875802904727</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7910538961540614</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.94247866720976</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.6257662666205206</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4011180826469165</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6062875802904727</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7910538961540614</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.94247866720976</v>
+        <v>10.7104634776949</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10197,19 +10197,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.295713890119815</v>
+        <v>5.303255772002762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.431295883350943</v>
+        <v>2.256986798719725</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.992299362089084</v>
+        <v>0.865913291564155</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.509126120807764</v>
+        <v>2.302879886577405</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>178.1484440362642</v>
+        <v>144.6872226630209</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10227,19 +10227,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.285490447960541</v>
+        <v>5.263082692315628</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.38178129814785</v>
+        <v>2.24747323633432</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.023485959863586</v>
+        <v>0.8623848797882984</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.507088041525575</v>
+        <v>2.294140948659351</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>157.9175449834099</v>
+        <v>143.8446340712786</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6095355198610305</v>
+        <v>0.2447566244579083</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3980523559641109</v>
+        <v>0.2882483517874507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6010302407195709</v>
+        <v>0.1269162228924008</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.780727558025865</v>
+        <v>0.4947288393230258</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.82705586314702</v>
+        <v>12.51405363154341</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6095355198610305</v>
+        <v>0.1650665156896632</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3980523559641109</v>
+        <v>0.2338868931838642</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6010302407195709</v>
+        <v>0.1035557078251285</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.780727558025865</v>
+        <v>0.406283787136114</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>19.82705586314702</v>
+        <v>10.01105246629568</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10919,19 +10919,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6155273914337158</v>
+        <v>0.6155273</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7217128872871399</v>
+        <v>0.7217128</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2871334254741669</v>
+        <v>0.2871334</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7845555375075214</v>
+        <v>0.7845554615350188</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>31.34926855564117</v>
+        <v>31.34926557540894</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10949,13 +10949,13 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3723462522029877</v>
+        <v>0.37234625</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5210428833961487</v>
+        <v>0.5210429</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2133612334728241</v>
+        <v>0.21336123</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.6102018126841214</v>
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3078867495059967</v>
+        <v>0.3080183</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4556622505187988</v>
+        <v>0.45571572</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1613046675920486</v>
+        <v>0.16132313</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5548754360268588</v>
+        <v>0.5549939611896836</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.12620759010315</v>
+        <v>18.12879145145416</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11011,19 +11011,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4135790467262268</v>
+        <v>0.41357896</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5521934032440186</v>
+        <v>0.5521933999999999</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1971905827522278</v>
+        <v>0.19719058</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6431011170307721</v>
+        <v>0.6431010475183971</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>22.04994708299637</v>
+        <v>22.04994559288025</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6190692186355591</v>
+        <v>0.6192102</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6349065899848938</v>
+        <v>0.63498163</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2351626604795456</v>
+        <v>0.23520747</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7868095186482934</v>
+        <v>0.7868990936711345</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.90585362911224</v>
+        <v>28.91283929347992</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.6082138419151306</v>
+        <v>0.60789406</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6605859994888306</v>
+        <v>0.6606097</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.249229222536087</v>
+        <v>0.24922654</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7798806587646154</v>
+        <v>0.7796756139548746</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>28.0989021062851</v>
+        <v>28.10345888137817</v>
       </c>
     </row>
   </sheetData>
@@ -11379,23 +11379,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5440884572019422</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3692349391290017</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5433468036089538</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7376235199625498</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.04856062020076</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11409,23 +11409,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.6116727752708141</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3656294005741575</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6331239977022973</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7820951190685275</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>18.07711154836788</v>
+        <v>14.00947691908368</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,23 +11503,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>14.92498321868537</v>
+        <v>6.706605678899304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.458798460102136</v>
+        <v>2.552841231813646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.875973305701093</v>
+        <v>1.017419058417388</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.863286582520817</v>
+        <v>2.589711504955582</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>168.0941857611412</v>
+        <v>175.9915008157339</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11533,23 +11533,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4908834688505802</v>
+        <v>7.109368434938045</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3175909028417379</v>
+        <v>2.617412012860616</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.5572312294355426</v>
+        <v>1</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.7006307649900768</v>
+        <v>2.666339894863002</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.89848048975398</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12085,19 +12085,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5574278639508986</v>
+        <v>0.1901807711529426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3712980419430403</v>
+        <v>0.230924660993445</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5870638477573765</v>
+        <v>0.1455841538862953</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7466109187193143</v>
+        <v>0.4360972037894105</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.94271014353479</v>
+        <v>11.33185892731403</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12111,23 +12111,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5449610828260236</v>
+        <v>0.1869118849624621</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3717322086586705</v>
+        <v>0.2845185929969926</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5884222293653868</v>
+        <v>0.1430404611512859</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7382147945049757</v>
+        <v>0.4323330717889416</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>18.99667420468428</v>
+        <v>12.9437897694176</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12229,19 +12229,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.32769763469696</v>
+        <v>1.327698</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8850715160369873</v>
+        <v>0.88507146</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4948514699935913</v>
+        <v>0.49485147</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.1522576251416</v>
+        <v>1.152257780327314</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>36.82244420051575</v>
+        <v>36.82242929935455</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12259,19 +12259,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.168171286582947</v>
+        <v>1.1681714</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.9862181544303894</v>
+        <v>0.9862182</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.421973705291748</v>
+        <v>0.42197374</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.080819728994131</v>
+        <v>1.080819784141758</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>47.91997373104095</v>
+        <v>47.91997671127319</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12291,19 +12291,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2389092147350311</v>
+        <v>0.23890905</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3496208786964417</v>
+        <v>0.3496208</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1258275955915451</v>
+        <v>0.12582757</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4887834026795828</v>
+        <v>0.4887832350053119</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.9733150601387</v>
+        <v>13.97331207990646</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12321,19 +12321,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2077361196279526</v>
+        <v>0.20773615</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3595126569271088</v>
+        <v>0.35951266</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1312616616487503</v>
+        <v>0.13126169</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4557807802309709</v>
+        <v>0.4557808129246721</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>13.83724510669708</v>
+        <v>13.8372465968132</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.097307920455933</v>
+        <v>1.097265</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8896299004554749</v>
+        <v>0.8895852</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3989727199077606</v>
+        <v>0.39895257</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.047524663411765</v>
+        <v>1.047504179042592</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>42.3253208398819</v>
+        <v>42.32469201087952</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.6897596120834351</v>
+        <v>0.6844412</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7246257662773132</v>
+        <v>0.7200078</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3162046670913696</v>
+        <v>0.31557256</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8305176771649325</v>
+        <v>0.8273096209034538</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>34.05302762985229</v>
+        <v>33.855339884758</v>
       </c>
     </row>
   </sheetData>
@@ -12693,19 +12693,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.672366185836622</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4596657211954301</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3795317704553525</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8199793813484715</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.56715269209275</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12719,23 +12719,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.5168298178044743</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3040068211799011</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.27068719169026</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7189087687630986</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>15.07905309422617</v>
+        <v>16.53272817053076</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,23 +12813,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4279686905369617</v>
+        <v>81863.15881559004</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3296554870268785</v>
+        <v>228.5820033581288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2793522747435711</v>
+        <v>104.4895992458261</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6541931599588624</v>
+        <v>286.1173864266029</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.06941590666621</v>
+        <v>190.6775825176286</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12843,23 +12843,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 2000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 0.15, 'fit_intercept': False, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>7.970073025314451</v>
+        <v>5.99065874133051</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.493961793300526</v>
+        <v>2.222484930105108</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.12517321792414</v>
+        <v>0.9465007512351898</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.823131776115747</v>
+        <v>2.447582223609762</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>143.1482387871324</v>
+        <v>134.1962713456622</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4786908779573188</v>
+        <v>0.0635497506210564</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2795385896733029</v>
+        <v>0.1746057674458636</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2668195377649311</v>
+        <v>0.0942409125674678</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6918749005111536</v>
+        <v>0.2520907586982442</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>14.27741534493625</v>
+        <v>8.215536074693654</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.4762061613332538</v>
+        <v>0.287781440788424</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2754554591345393</v>
+        <v>0.3223080563187958</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2646774928451864</v>
+        <v>0.2175132088986361</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.6900769242144341</v>
+        <v>0.5364526454296074</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>14.11667554390949</v>
+        <v>15.32945931664089</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13539,19 +13539,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.667618453502655</v>
+        <v>0.6676182000000001</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5562118291854858</v>
+        <v>0.5562118</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2678360939025879</v>
+        <v>0.26783615</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8170792210689579</v>
+        <v>0.8170790751720888</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>31.77772462368011</v>
+        <v>31.77772164344788</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13569,16 +13569,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6402872204780579</v>
+        <v>0.6402871</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6661800742149353</v>
+        <v>0.6661801000000001</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3696697354316711</v>
+        <v>0.3696697</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8001794926627762</v>
+        <v>0.8001794181736795</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>30.65392971038818</v>
@@ -13601,13 +13601,13 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6266385912895203</v>
+        <v>0.6266386</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6607097387313843</v>
+        <v>0.6607098</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2521310448646545</v>
+        <v>0.25213107</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.7916050728043121</v>
@@ -13631,19 +13631,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4310993850231171</v>
+        <v>0.43109933</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.509515643119812</v>
+        <v>0.5095156</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1869629621505737</v>
+        <v>0.18696293</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6565815905301619</v>
+        <v>0.6565815451400323</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.42236679792404</v>
+        <v>21.42236530780792</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>859323.8125</v>
+        <v>859867.25</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>807.5318603515625</v>
+        <v>807.72864</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>320.3146057128906</v>
+        <v>320.3852</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>926.9972019914624</v>
+        <v>927.2902727840944</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>194.3443298339844</v>
+        <v>196.0276484489441</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7692486643791199</v>
+        <v>0.7699844</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7836158871650696</v>
+        <v>0.7839755</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3728837370872498</v>
+        <v>0.37303862</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.877068221051886</v>
+        <v>0.8774875635097213</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>34.27979350090027</v>
+        <v>34.29637849330902</v>
       </c>
     </row>
   </sheetData>
@@ -13963,23 +13963,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0107811596149534</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.0833427861057747</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.2083922123654491</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1038323630423261</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>15.11478187571497</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14055,19 +14055,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02038857403987366</v>
+        <v>0.0400888310178886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1112476956031913</v>
+        <v>0.1563294511350221</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1472504280743567</v>
+        <v>0.3109801224772502</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1427885641074721</v>
+        <v>0.2002219543853487</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.73993630831041</v>
+        <v>27.03538325190435</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03637772233756317</v>
+        <v>0.0087255721772582</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1414468720063614</v>
+        <v>0.0656276863716854</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1854988636491001</v>
+        <v>0.1794269854756171</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1907294480083324</v>
+        <v>0.0934107712057785</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.95490596653418</v>
+        <v>12.15182503028512</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14615,19 +14615,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03386697173118591</v>
+        <v>0.03386697</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1471215039491653</v>
+        <v>0.14712155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3552182614803314</v>
+        <v>0.35521832</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1840298120718106</v>
+        <v>0.1840298120718105</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.9268501996994</v>
+        <v>24.92685317993164</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -14659,19 +14659,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04884080216288567</v>
+        <v>0.048840806</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1640839725732803</v>
+        <v>0.16408393</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2226420491933823</v>
+        <v>0.22264197</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2209995524042654</v>
+        <v>0.2209995608325409</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.12750339508057</v>
+        <v>28.12749445438385</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06239153072237968</v>
+        <v>0.06291801499999999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2227773368358612</v>
+        <v>0.2238115</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4505200088024139</v>
+        <v>0.45225596</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2497829672383201</v>
+        <v>0.2508346364128973</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.27839374542236</v>
+        <v>33.4254115819931</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15021,23 +15021,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04377285395872856</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1627441219951585</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.4327899107172457</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2092196309114624</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>31.17291429381028</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15051,23 +15051,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04448949684801774</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1618196904100054</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.4334278238972956</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2109253347704295</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.58235742064967</v>
+        <v>33.28195026169174</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15145,23 +15145,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03276839407877064</v>
+        <v>0.0285254653126508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1369327250871655</v>
+        <v>0.1261963423368386</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3537244566174633</v>
+        <v>0.3488798013327181</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1810204244795892</v>
+        <v>0.1688948350680116</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.05781496995306</v>
+        <v>23.85242422835218</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15175,23 +15175,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03247456093675517</v>
+        <v>0.0287443203623862</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1363984822108544</v>
+        <v>0.1281596042199226</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3527569988919325</v>
+        <v>0.3521219057593304</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1802069946943103</v>
+        <v>0.1695415004132801</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>23.97285563833515</v>
+        <v>24.20882218683814</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15723,23 +15723,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03000538776448996</v>
+        <v>0.0118510005471638</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1268096081058513</v>
+        <v>0.0886194376352499</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3784154479694666</v>
+        <v>0.212654516935254</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1732206331950382</v>
+        <v>0.1088623008537106</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.68708325465058</v>
+        <v>17.45452435518133</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15753,23 +15753,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.02907409505069043</v>
+        <v>0.0109681841225839</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.12620542137573</v>
+        <v>0.0862785764413353</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3792767129468217</v>
+        <v>0.2086184346350956</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1705112754356451</v>
+        <v>0.1047290987385259</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>21.92473990054418</v>
+        <v>17.09365921097575</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15871,16 +15871,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06709867715835571</v>
+        <v>0.06709869</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1349382251501083</v>
+        <v>0.13493824</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8068376779556274</v>
+        <v>0.8068377</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2590341235404242</v>
+        <v>0.2590341523033534</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>23.79710674285889</v>
@@ -15901,19 +15901,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04159605875611305</v>
+        <v>0.041596048</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1292060762643814</v>
+        <v>0.12920606</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6509733200073242</v>
+        <v>0.6509732</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2039511185458737</v>
+        <v>0.2039510911474664</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>24.66731369495392</v>
+        <v>24.66730773448944</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -15933,19 +15933,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01722772233188152</v>
+        <v>0.017226756</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1079643368721008</v>
+        <v>0.107957125</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1600263267755508</v>
+        <v>0.16001227</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1312544183327995</v>
+        <v>0.1312507356895536</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.83008021116257</v>
+        <v>15.82894772291184</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15963,19 +15963,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01856144331395626</v>
+        <v>0.018561443</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09909649193286896</v>
+        <v>0.099096484</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1509093046188354</v>
+        <v>0.1509093</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.1362403879690463</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.25611132383347</v>
+        <v>15.25610983371735</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -15995,19 +15995,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1045832633972168</v>
+        <v>0.10367435</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2944213151931763</v>
+        <v>0.2938318</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6589323282241821</v>
+        <v>0.65370256</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3233933570703282</v>
+        <v>0.3219850185475045</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>56.53626322746277</v>
+        <v>56.48038983345032</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -16025,19 +16025,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05646708235144615</v>
+        <v>0.056467883</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2097001224756241</v>
+        <v>0.2097019</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.574472963809967</v>
+        <v>0.574473</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2376280335975664</v>
+        <v>0.237629718867107</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>38.62959146499634</v>
+        <v>38.62988948822021</v>
       </c>
     </row>
   </sheetData>
@@ -16295,23 +16295,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0132624053897975</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.0830294474047578</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.2623845745620622</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.1151625172953314</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>16.94237685336945</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16383,23 +16383,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07706938012820704</v>
+        <v>0.0718490027086305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2376623906410265</v>
+        <v>0.2252696497454461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4190958201555056</v>
+        <v>0.386922266206016</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2776137246755049</v>
+        <v>0.2680466427855991</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>41.16945627450897</v>
+        <v>37.26767707978789</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16817,23 +16817,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04857253880210374</v>
+        <v>0.0103940202774351</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1759669053103863</v>
+        <v>0.07971123849603549</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3354370410745176</v>
+        <v>0.1820103322326055</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2203917847881444</v>
+        <v>0.1019510680544112</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.18623365217133</v>
+        <v>14.81599127985601</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16947,19 +16947,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03948262706398964</v>
+        <v>0.039482605</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1505230069160461</v>
+        <v>0.15052296</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4966024160385132</v>
+        <v>0.49660227</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1987023579728978</v>
+        <v>0.1987023017286107</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.0644496679306</v>
+        <v>29.06444072723389</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16991,19 +16991,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1572585999965668</v>
+        <v>0.15725861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3081837296485901</v>
+        <v>0.30818376</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4667646288871765</v>
+        <v>0.4667647</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3965584446163853</v>
+        <v>0.3965584634044871</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>35.45055091381073</v>
+        <v>35.45055389404297</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.374470591545105</v>
+        <v>0.37395123</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5227476358413696</v>
+        <v>0.5224209399999999</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.517938852310181</v>
+        <v>1.5169606</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6119400228332063</v>
+        <v>0.6115155161341816</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>58.61973762512207</v>
+        <v>58.59887599945069</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17317,23 +17317,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0168770049022716</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.0896976943335946</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.3604902273368061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.1299115272109123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.89228775050308</v>
+        <v>19.84254340155211</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17405,23 +17405,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05416642155735302</v>
+        <v>0.0748658399521053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1825288370776698</v>
+        <v>0.2069608346477661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4705924783213175</v>
+        <v>0.4545095238582902</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2327368074829442</v>
+        <v>0.2736162275014136</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>30.95162101447211</v>
+        <v>37.81588950671955</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17843,19 +17843,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03929444588778564</v>
+        <v>0.0234356009759309</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1523308860440497</v>
+        <v>0.1052258400128356</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4647336214802634</v>
+        <v>0.419613851495844</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1982282671260223</v>
+        <v>0.1530869066116723</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.0928436266239</v>
+        <v>20.80223692076458</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17969,19 +17969,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09587810188531876</v>
+        <v>0.09587809999999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2412659525871277</v>
+        <v>0.24126592</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4919204413890839</v>
+        <v>0.49192026</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.3096418929752864</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>50.04743337631226</v>
+        <v>50.04740357398987</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1343602240085602</v>
+        <v>0.13436025</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2906477451324463</v>
+        <v>0.2906478</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6041136980056763</v>
+        <v>0.60411364</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3665518026262594</v>
+        <v>0.3665518432785226</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.05543422698975</v>
+        <v>48.05543720722199</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.329228937625885</v>
+        <v>0.32868427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4600005149841309</v>
+        <v>0.4596073</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.508482336997986</v>
+        <v>1.5069925</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5737847485127894</v>
+        <v>0.5733099252428197</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>54.35454845428467</v>
+        <v>54.32806015014648</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1751885660158428</v>
+        <v>0.2002770454172556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3463950500272504</v>
+        <v>0.3358369174962601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1190325399000632</v>
+        <v>0.1436067277977157</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4185553320838749</v>
+        <v>0.4475232344999035</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.99439137621602</v>
+        <v>13.63721552703673</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5322012600901121</v>
+        <v>0.4702229621553432</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.495291168116549</v>
+        <v>0.4708567355997824</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1812055603391162</v>
+        <v>0.2044963232259726</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7295212540359</v>
+        <v>0.6857280526238833</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>23.67131647433326</v>
+        <v>22.02512164605261</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18991,16 +18991,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8284924030303955</v>
+        <v>0.8284923</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8145878314971924</v>
+        <v>0.81458783</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3548808991909027</v>
+        <v>0.35488087</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9102155805249631</v>
+        <v>0.9102155150408644</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>27.53298282623291</v>
@@ -19035,13 +19035,13 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.661360502243042</v>
+        <v>0.6613605</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6073893904685974</v>
+        <v>0.6073893299999999</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2134969830513</v>
+        <v>0.21349698</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.8132407406439018</v>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5509631037712097</v>
+        <v>0.550961</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6633120775222778</v>
+        <v>0.66331166</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2889210283756256</v>
+        <v>0.28892118</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7422688891306234</v>
+        <v>0.7422674838686136</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.18685352802277</v>
+        <v>23.18686991930008</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19453,19 +19453,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2309588002972173</v>
+        <v>0.2280473432783195</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3931306295245982</v>
+        <v>0.3613455681710155</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1572899000354111</v>
+        <v>0.1965634939963833</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4805817311313626</v>
+        <v>0.4775430276721874</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.64433005854967</v>
+        <v>15.75296833885181</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19887,19 +19887,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.19740052038159</v>
+        <v>0.2527089622118659</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3095634707177017</v>
+        <v>0.3009245481391949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1275721064097398</v>
+        <v>0.1519489330550493</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4442977834533839</v>
+        <v>0.5027016632276702</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>12.71144712028139</v>
+        <v>13.99969967688571</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20013,19 +20013,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6373598575592041</v>
+        <v>0.6373603</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5452539920806885</v>
+        <v>0.54525405</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.327661007642746</v>
+        <v>0.32766113</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7983482057092658</v>
+        <v>0.7983484670190816</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.40831744670868</v>
+        <v>20.40832340717316</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20057,19 +20057,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2229218035936356</v>
+        <v>0.22292183</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3725345134735107</v>
+        <v>0.37253454</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1364428848028183</v>
+        <v>0.13644291</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.472145955816245</v>
+        <v>0.4721459873767413</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.11046290397644</v>
+        <v>15.11046439409256</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2665262222290039</v>
+        <v>0.26664844</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.275532454252243</v>
+        <v>0.2757427</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2012822926044464</v>
+        <v>0.20137368</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5162617768429152</v>
+        <v>0.5163801328024887</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.14878037571907</v>
+        <v>12.15594336390495</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2944677060769736</v>
+        <v>0.2977911342298906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4241657950751955</v>
+        <v>0.404345630409968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2180843184261853</v>
+        <v>0.2528453189272103</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5426487870409126</v>
+        <v>0.5457024227817672</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.02626723375442</v>
+        <v>18.3534631542015</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20909,19 +20909,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5782381896765529</v>
+        <v>0.268447642712216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4536291520444006</v>
+        <v>0.3077897875537216</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1818892323184358</v>
+        <v>0.2063589693798485</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7604197457171618</v>
+        <v>0.5181193325019016</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.50211539043995</v>
+        <v>14.57001418068811</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21035,19 +21035,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4857867062091827</v>
+        <v>0.48578686</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4300436973571777</v>
+        <v>0.43004382</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3251444101333618</v>
+        <v>0.32514447</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6969840071401802</v>
+        <v>0.6969841140376118</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.49963963031769</v>
+        <v>18.49964261054993</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21079,19 +21079,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2156685292720795</v>
+        <v>0.21566851</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3744339048862457</v>
+        <v>0.37443393</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1408316344022751</v>
+        <v>0.14083162</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4644012589044946</v>
+        <v>0.4644012428610826</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.03986418247223</v>
+        <v>15.03986269235611</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.160668253898621</v>
+        <v>1.1606973</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8955764770507812</v>
+        <v>0.89559126</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5270728468894958</v>
+        <v>0.5270802</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.077343145844731</v>
+        <v>1.077356645204025</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.06615746021271</v>
+        <v>32.06655085086823</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21441,23 +21441,23 @@
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0134210252448559</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.08309463419155801</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.2037153512389441</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.1158491486583132</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>15.97079710696415</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21471,23 +21471,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0131097110050157</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.0806720283516351</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.173594534528275</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.1144976462859203</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.8385981240602</v>
+        <v>14.55888787145939</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21569,19 +21569,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04619804345421116</v>
+        <v>0.0206902862718364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1715089432531207</v>
+        <v>0.1068682816926325</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3238217884906093</v>
+        <v>0.2566805252298263</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2149373012164505</v>
+        <v>0.1438411841992286</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.54603370766135</v>
+        <v>19.5872920357162</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21599,19 +21599,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04609618785696456</v>
+        <v>0.0206123175531394</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1714818523700614</v>
+        <v>0.1063473056976688</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3223886288484603</v>
+        <v>0.2569453916203281</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2147002278922045</v>
+        <v>0.143569904761198</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.56010209213641</v>
+        <v>19.51656165774419</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22143,23 +22143,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04387523153841396</v>
+        <v>0.0115541328627739</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1724603259434599</v>
+        <v>0.0836919922371574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3000942229919964</v>
+        <v>0.1737261638434049</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2094641533494788</v>
+        <v>0.1074901523990637</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.09666716501996</v>
+        <v>15.01337576804115</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.0472843860773027</v>
+        <v>0.0148289587939884</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1818993507458713</v>
+        <v>0.0926647443381691</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3322440771122023</v>
+        <v>0.1792665702677681</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2174497322999104</v>
+        <v>0.1217742123521577</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>29.78480364067566</v>
+        <v>15.89731840118241</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22291,19 +22291,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02311559021472931</v>
+        <v>0.02311559</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1075562462210655</v>
+        <v>0.10755623</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3895731270313263</v>
+        <v>0.38957313</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1520381209260668</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.1003298163414</v>
+        <v>20.10032832622528</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22321,19 +22321,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02971347793936729</v>
+        <v>0.029713478</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1247886940836906</v>
+        <v>0.124788694</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4367754459381104</v>
+        <v>0.43677542</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1723759784290355</v>
+        <v>0.1723759784290354</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.52021580934525</v>
+        <v>22.52021878957748</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22353,19 +22353,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02330652624368668</v>
+        <v>0.023307368</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1322178989648819</v>
+        <v>0.13222173</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1957807391881943</v>
+        <v>0.19578606</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1526647511499844</v>
+        <v>0.1526675085252069</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.22232615947723</v>
+        <v>21.22259587049484</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22383,19 +22383,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01906061172485352</v>
+        <v>0.019060608</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1099391505122185</v>
+        <v>0.10993915</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1528535634279251</v>
+        <v>0.15285356</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1380601742895232</v>
+        <v>0.1380601607979768</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.07497930526733</v>
+        <v>16.07497781515121</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22415,19 +22415,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0304692555218935</v>
+        <v>0.030469857</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1202150881290436</v>
+        <v>0.12021135</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4580057859420776</v>
+        <v>0.45800686</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1745544485880939</v>
+        <v>0.1745561719226126</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.09282422065735</v>
+        <v>23.09170812368393</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -22445,19 +22445,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.03779372945427895</v>
+        <v>0.037798133</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1485417485237122</v>
+        <v>0.14855728</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5024303197860718</v>
+        <v>0.5024753</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1944060941798866</v>
+        <v>0.1944174188374378</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.4067610502243</v>
+        <v>27.4105429649353</v>
       </c>
     </row>
   </sheetData>
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.160509145848194</v>
+        <v>0.2110894483706274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3348745707319975</v>
+        <v>0.3644435577089377</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1150879177305153</v>
+        <v>0.1537850942014264</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4006359268066133</v>
+        <v>0.4594447174259679</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.48990898356738</v>
+        <v>14.73072419522434</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1606501950079543</v>
+        <v>0.2113771212956189</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3349886415953258</v>
+        <v>0.3647765038259012</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.115124928707643</v>
+        <v>0.1539296954879991</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4008119197428568</v>
+        <v>0.4597576767120033</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>12.49452809079979</v>
+        <v>14.74420336378733</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23453,23 +23453,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3186605641361788</v>
+        <v>0.0628201617576675</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4090326955428265</v>
+        <v>0.1449779319873269</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1517426230707524</v>
+        <v>0.0740939271292493</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5645002782427824</v>
+        <v>0.25063950558056</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.6966677078583</v>
+        <v>6.295910016324338</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23483,23 +23483,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1124350077656455</v>
+        <v>0.0648824226537225</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2671712818916681</v>
+        <v>0.1459184667906854</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.09416030860282913</v>
+        <v>0.07462907063172609</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.3353132979254558</v>
+        <v>0.2547202831612011</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>10.08582053450142</v>
+        <v>6.326856784964844</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23601,19 +23601,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09573192894458771</v>
+        <v>0.09573199</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1547642350196838</v>
+        <v>0.15476432</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08726618438959122</v>
+        <v>0.08726623</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.309405767471435</v>
+        <v>0.3094058637925798</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.775207817554474</v>
+        <v>6.775210052728653</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23631,19 +23631,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2344929575920105</v>
+        <v>0.23449291</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3818986117839813</v>
+        <v>0.38189846</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1787665635347366</v>
+        <v>0.17876655</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4842447290286292</v>
+        <v>0.4842446828706815</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>14.55226093530655</v>
+        <v>14.55225646495819</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23663,19 +23663,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1800382137298584</v>
+        <v>0.18000947</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3365010619163513</v>
+        <v>0.33647406</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1173437312245369</v>
+        <v>0.1173341</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4243091016344787</v>
+        <v>0.4242752283481979</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.70658373832703</v>
+        <v>12.7054288983345</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23693,19 +23693,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2677295506000519</v>
+        <v>0.26774883</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4135757684707642</v>
+        <v>0.41360134</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.144772082567215</v>
+        <v>0.14478172</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5174258889928603</v>
+        <v>0.5174445213765788</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.01736545562744</v>
+        <v>16.01845771074295</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23725,19 +23725,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4363360106945038</v>
+        <v>0.43633747</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5464074611663818</v>
+        <v>0.54640454</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2492348104715347</v>
+        <v>0.2492337</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6605573485281228</v>
+        <v>0.6605584538920842</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.74862664937973</v>
+        <v>19.74850594997406</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -23755,19 +23755,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3019506931304932</v>
+        <v>0.30197087</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3955351114273071</v>
+        <v>0.39555618</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1914316117763519</v>
+        <v>0.19144015</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5495004032123117</v>
+        <v>0.5495187615566457</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>14.99627828598022</v>
+        <v>14.99693840742111</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -24066,19 +24066,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2928382017919841</v>
+        <v>0.3361097730656966</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4207793667483262</v>
+        <v>0.4475558832333947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2183144020605171</v>
+        <v>0.2705671141127258</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5411452686589656</v>
+        <v>0.579749750380021</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.85517622793126</v>
+        <v>20.05855945601106</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2926112817361877</v>
+        <v>0.3363327187921617</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.420691824321363</v>
+        <v>0.4478989109349856</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2182230586478696</v>
+        <v>0.2706843327676498</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5409355615377748</v>
+        <v>0.5799419960583659</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>17.85208857633551</v>
+        <v>20.07281402857056</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24764,23 +24764,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2348382144694545</v>
+        <v>0.1870264549072101</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3320368954250486</v>
+        <v>0.2456091112171688</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1378258751700163</v>
+        <v>0.1932263697318786</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.484601087977993</v>
+        <v>0.4324655534342708</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>14.52819954531807</v>
+        <v>12.13010753535001</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.09239490537452606</v>
+        <v>0.1833338329166808</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2053374182081956</v>
+        <v>0.2400708450924456</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1213766016836443</v>
+        <v>0.1902836069216795</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.3039653029122338</v>
+        <v>0.428175002676103</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>9.472087660808329</v>
+        <v>11.92810806186272</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5003120899200439</v>
+        <v>0.500312</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4488826394081116</v>
+        <v>0.44888255</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3351026177406311</v>
+        <v>0.3351026</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7073274276599515</v>
+        <v>0.7073273433925443</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.87395232915878</v>
+        <v>18.87395083904266</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24942,16 +24942,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.8383909463882446</v>
+        <v>0.8383910999999999</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6967424750328064</v>
+        <v>0.6967426</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.451891154050827</v>
+        <v>0.45189124</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9156369075065971</v>
+        <v>0.9156370051511564</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>26.64768695831299</v>
@@ -24974,19 +24974,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1017560139298439</v>
+        <v>0.101755984</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2550660371780396</v>
+        <v>0.255066</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09586677700281143</v>
+        <v>0.09586676</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3189921847472817</v>
+        <v>0.3189921380340298</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.954731166362762</v>
+        <v>9.954730421304705</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25004,19 +25004,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2388707101345062</v>
+        <v>0.23887078</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4090941846370697</v>
+        <v>0.40909427</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1499379426240921</v>
+        <v>0.14993796</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4887440128886555</v>
+        <v>0.4887440891103566</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.17544591426849</v>
+        <v>16.17545038461685</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -25036,19 +25036,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3906038105487823</v>
+        <v>0.3906021</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.347611665725708</v>
+        <v>0.34760854</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2819492816925049</v>
+        <v>0.281948</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6249830482091353</v>
+        <v>0.6249816891848963</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.75403362512589</v>
+        <v>15.75392037630081</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -25066,19 +25066,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.5659164786338806</v>
+        <v>0.5659126</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4858412146568298</v>
+        <v>0.4858298</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3561933934688568</v>
+        <v>0.35618886</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7522742044187616</v>
+        <v>0.7522716293546967</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>20.2147588133812</v>
+        <v>20.21438628435135</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2157629917290099</v>
+        <v>0.275548373932942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3801237274004825</v>
+        <v>0.4131453083388495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1530360154757276</v>
+        <v>0.2182055731121895</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4645029512597417</v>
+        <v>0.5249270177205038</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.07446127817528</v>
+        <v>17.80197512255253</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2156698420281371</v>
+        <v>0.2753896196855274</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3799722444292625</v>
+        <v>0.4131214143753188</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1529694628003872</v>
+        <v>0.2182354478503909</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4644026722878941</v>
+        <v>0.5247757803915186</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>15.06829461468616</v>
+        <v>17.80073041834215</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26075,23 +26075,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1298915258340236</v>
+        <v>0.1495244705536672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2721829094486415</v>
+        <v>0.2797994952406356</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1080886636538588</v>
+        <v>0.1418090728500087</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3604046695508031</v>
+        <v>0.3866839414220187</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>11.16135612882968</v>
+        <v>13.15589677539743</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26105,23 +26105,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1927025606490088</v>
+        <v>0.149302669762213</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3407909673480084</v>
+        <v>0.280437751710998</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1339241211713496</v>
+        <v>0.1459021933228663</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4389789979589101</v>
+        <v>0.3863970364304221</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>14.62322872628163</v>
+        <v>13.21747032412463</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26223,16 +26223,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.376685738563538</v>
+        <v>1.3766855</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9741283059120178</v>
+        <v>0.9741282999999999</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5245954990386963</v>
+        <v>0.52459544</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.173322521118357</v>
+        <v>1.17332241951859</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>32.65782296657562</v>
@@ -26253,19 +26253,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2464996725320816</v>
+        <v>0.2464996</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.386411190032959</v>
+        <v>0.38641107</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2127856910228729</v>
+        <v>0.21278566</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4964873337075998</v>
+        <v>0.4964872586746569</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>16.72404110431671</v>
+        <v>16.72403663396835</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1042406111955643</v>
+        <v>0.10424063</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2490197718143463</v>
+        <v>0.2490198</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08774352073669434</v>
+        <v>0.087743536</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3228631462331436</v>
+        <v>0.3228631808480274</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.218740463256836</v>
+        <v>9.218741953372955</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26315,19 +26315,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05254151299595833</v>
+        <v>0.052535895</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1780360192060471</v>
+        <v>0.17802195</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06260690093040466</v>
+        <v>0.0626017</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2292193556311472</v>
+        <v>0.2292071012385703</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.512201577425003</v>
+        <v>6.511604785919189</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26347,19 +26347,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3524330854415894</v>
+        <v>0.3524385</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3573301136493683</v>
+        <v>0.35733658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2439409345388412</v>
+        <v>0.2439439</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5936607494534142</v>
+        <v>0.5936653177205689</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.03282785415649</v>
+        <v>15.03304243087769</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -26377,19 +26377,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2990996837615967</v>
+        <v>0.29909617</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3089850544929504</v>
+        <v>0.3089851</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2184218168258667</v>
+        <v>0.21842125</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5469000674360872</v>
+        <v>0.5468968523291708</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>13.45173567533493</v>
+        <v>13.45174461603165</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -26690,19 +26690,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26720,19 +26720,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26814,19 +26814,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0394029245394985</v>
+        <v>0.0429815952542641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1553672034602652</v>
+        <v>0.1627246123374921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2025301968251367</v>
+        <v>0.3396650031274408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.198501699084664</v>
+        <v>0.2073200310010206</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>22.35446255634172</v>
+        <v>26.68017926988476</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26844,19 +26844,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0394128379638916</v>
+        <v>0.0429765896359839</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1554027336487668</v>
+        <v>0.1627262844576142</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.202575806150061</v>
+        <v>0.3396457789126543</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1985266681428256</v>
+        <v>0.2073079584482563</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>22.36032204438795</v>
+        <v>26.68074195296287</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27388,23 +27388,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05638819324270751</v>
+        <v>0.0432232878055796</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1856548707940683</v>
+        <v>0.1632524180922911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2375059150275168</v>
+        <v>0.3413974971187383</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2374619827313575</v>
+        <v>0.2079021111138116</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.60793417389799</v>
+        <v>26.75917895970176</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27418,23 +27418,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04373629355561719</v>
+        <v>0.0430350852696379</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1743710838840376</v>
+        <v>0.1626154998881198</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2241161587233222</v>
+        <v>0.3410208764951055</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2091322393979876</v>
+        <v>0.2074489943808789</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>25.98459741655872</v>
+        <v>26.64991918480323</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05976715683937073</v>
+        <v>0.059767082</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.19218510389328</v>
+        <v>0.19218495</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5088399052619934</v>
+        <v>0.50883955</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2444732231541334</v>
+        <v>0.2444730707737863</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.32534515857697</v>
+        <v>29.32532727718353</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -27566,19 +27566,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04120039567351341</v>
+        <v>0.041200392</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1605604887008667</v>
+        <v>0.16056049</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4130086898803711</v>
+        <v>0.41300863</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2029788059712477</v>
+        <v>0.2029787967946975</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.68974792957306</v>
+        <v>25.68974494934082</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27598,19 +27598,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02038870751857758</v>
+        <v>0.020388197</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1276723146438599</v>
+        <v>0.12767148</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1911277621984482</v>
+        <v>0.19112618</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1427890315065467</v>
+        <v>0.1427872443665984</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.78813004493713</v>
+        <v>17.78804361820221</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27628,19 +27628,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01397540327161551</v>
+        <v>0.013975407</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1028205156326294</v>
+        <v>0.10282053</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1467157155275345</v>
+        <v>0.14671573</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1182176098202612</v>
+        <v>0.1182176255763319</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.36256319284439</v>
+        <v>14.36256617307663</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04454060271382332</v>
+        <v>0.04363058</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1724728792905807</v>
+        <v>0.17060167</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4014710783958435</v>
+        <v>0.40466812</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.21104644681639</v>
+        <v>0.2088793463919648</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.78861224651337</v>
+        <v>27.43376493453979</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.03824544325470924</v>
+        <v>0.03817743</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1536027044057846</v>
+        <v>0.1533895</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3980517089366913</v>
+        <v>0.39752555</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1955644222621007</v>
+        <v>0.1953904568542953</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.78093355894089</v>
+        <v>24.75292086601257</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05626324212185002</v>
+        <v>0.0599945434816984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1884870638701841</v>
+        <v>0.1960351478064713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4888207441301031</v>
+        <v>0.6145884239207581</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2371987397138737</v>
+        <v>0.2449378359537342</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.72864779380419</v>
+        <v>34.79649017061299</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05626095339637213</v>
+        <v>0.0599915041140501</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1884903352075292</v>
+        <v>0.1960303376968059</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4888339704692396</v>
+        <v>0.6145668076146172</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2371939151756894</v>
+        <v>0.2449316315097953</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>31.72922097135746</v>
+        <v>34.79577512044579</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28702,53 +28702,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0726028260586479</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2177529084521128</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.574179291511868</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2694491158988056</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>39.26264572341546</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.05747767375307843</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.1905682672574251</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.4941894224957669</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.2397450182028366</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>32.04034218100848</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.05736143367135827</v>
+        <v>0.0606451335986931</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.197073069506045</v>
+        <v>0.197158183597521</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4807838088990477</v>
+        <v>0.6198237358195611</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.239502471117436</v>
+        <v>0.2462623267954177</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>33.66008423986911</v>
+        <v>34.95067633616998</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28850,16 +28850,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06662294268608093</v>
+        <v>0.06662293499999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1992712020874023</v>
+        <v>0.1992712</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.785982072353363</v>
+        <v>0.7859821</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2581142047351926</v>
+        <v>0.2581141903024712</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>33.8636189699173</v>
@@ -28880,19 +28880,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.188629537820816</v>
+        <v>0.18862993</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3627183139324188</v>
+        <v>0.36271885</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.270133137702942</v>
+        <v>1.2701343</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4343150214082124</v>
+        <v>0.4343154674323804</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>49.59514737129211</v>
+        <v>49.59519505500793</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28912,19 +28912,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0443635918200016</v>
+        <v>0.04436359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1746817231178284</v>
+        <v>0.17468177</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3287740051746368</v>
+        <v>0.32877403</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.2106266645512899</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.45363414287567</v>
+        <v>27.45363712310791</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28942,19 +28942,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03747968748211861</v>
+        <v>0.037479687</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1553399860858917</v>
+        <v>0.15534002</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2907266914844513</v>
+        <v>0.29072672</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.1935967135106343</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>24.47905689477921</v>
+        <v>24.47905987501144</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06599628180265427</v>
+        <v>0.06484403499999999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1954922527074814</v>
+        <v>0.19376072</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.727136492729187</v>
+        <v>0.71806234</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2568974149396102</v>
+        <v>0.2546449186851738</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.67926478385925</v>
+        <v>33.45816135406494</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05908180400729179</v>
+        <v>0.05905323</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.187714084982872</v>
+        <v>0.18756695</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7084444761276245</v>
+        <v>0.70862937</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2430674885855609</v>
+        <v>0.2430087056685471</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>32.71097540855408</v>
+        <v>32.6866626739502</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04713234420459114</v>
+        <v>0.051082993240539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1729975236222779</v>
+        <v>0.1802186958538552</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3304899975288136</v>
+        <v>0.4943341436917787</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2170998484674532</v>
+        <v>0.2260154712415481</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.70830762497317</v>
+        <v>31.29287004948187</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04711803653268334</v>
+        <v>0.0510913828236145</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1729564404713406</v>
+        <v>0.1802109607161113</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.330463864485848</v>
+        <v>0.4943586419969489</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2170668941425277</v>
+        <v>0.2260340302335348</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.70121266654575</v>
+        <v>31.29113902346189</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30018,19 +30018,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04782404615145833</v>
+        <v>0.0515710226236025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1742824912945103</v>
+        <v>0.1811416658195834</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3331198320609985</v>
+        <v>0.4979663072645176</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2186870964448025</v>
+        <v>0.2270925419814631</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.90827569288556</v>
+        <v>31.42641266804087</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -30048,19 +30048,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04782404615145833</v>
+        <v>0.0515710226236025</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1742824912945103</v>
+        <v>0.1811416658195834</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3331198320609985</v>
+        <v>0.4979663072645176</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2186870964448025</v>
+        <v>0.2270925419814631</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.90827569288556</v>
+        <v>31.42641266804087</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30162,19 +30162,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05090028792619705</v>
+        <v>0.05090025</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1742606610059738</v>
+        <v>0.17426062</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5694893598556519</v>
+        <v>0.5694889400000001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2256109215578826</v>
+        <v>0.2256108389978063</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.73209321498871</v>
+        <v>29.73209023475647</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30192,19 +30192,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0517805777490139</v>
+        <v>0.051780537</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1774362921714783</v>
+        <v>0.17743622</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5987722873687744</v>
+        <v>0.5987721</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2275534612986889</v>
+        <v>0.2275533712578669</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.00463247299194</v>
+        <v>30.00462651252746</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30224,16 +30224,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03930099308490753</v>
+        <v>0.039300986</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1737155318260193</v>
+        <v>0.17371552</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.287862241268158</v>
+        <v>0.28786224</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.198244780725515</v>
+        <v>0.1982447619341478</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>24.80823993682861</v>
@@ -30254,16 +30254,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03663968294858932</v>
+        <v>0.03663968</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1570482552051544</v>
+        <v>0.15704826</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2592313587665558</v>
+        <v>0.25923136</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1914149496475898</v>
+        <v>0.1914149399166612</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>22.54776209592819</v>
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08203748613595963</v>
+        <v>0.08199748</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2242476940155029</v>
+        <v>0.22422788</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7540515065193176</v>
+        <v>0.7538009</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.286421867419301</v>
+        <v>0.2863520150411974</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>35.14910936355591</v>
+        <v>35.14846563339233</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04854196682572365</v>
+        <v>0.04853967</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1733843833208084</v>
+        <v>0.17337051</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.49295574426651</v>
+        <v>0.49297163</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2203224156224773</v>
+        <v>0.220317199332257</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>30.11772632598877</v>
+        <v>30.11526167392731</v>
       </c>
     </row>
   </sheetData>
